--- a/Code/Results/Cases/Case_0_115/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_115/res_line/pl_mw.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1426606180026653</v>
+        <v>0.2189033714348056</v>
       </c>
       <c r="D2">
-        <v>0.1250896336293152</v>
+        <v>0.181563596258755</v>
       </c>
       <c r="E2">
-        <v>0.06195929171775028</v>
+        <v>0.1538151639921121</v>
       </c>
       <c r="F2">
-        <v>0.5204737905818249</v>
+        <v>1.396127015626156</v>
       </c>
       <c r="G2">
-        <v>0.2885711788557757</v>
+        <v>0.7888758353158636</v>
       </c>
       <c r="H2">
-        <v>0.2818482119279935</v>
+        <v>0.8876228856497974</v>
       </c>
       <c r="I2">
-        <v>0.3560137468205014</v>
+        <v>0.9677609843999697</v>
       </c>
       <c r="J2">
-        <v>0.05504202830361038</v>
+        <v>0.17658885258545</v>
       </c>
       <c r="K2">
-        <v>3.648633793319846</v>
+        <v>1.3720748851091</v>
       </c>
       <c r="L2">
-        <v>0.06674984094650327</v>
+        <v>0.2055227137656512</v>
       </c>
       <c r="M2">
-        <v>0.7605916968514705</v>
+        <v>0.4322521183767378</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.149467332410921</v>
+        <v>3.368680463128655</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1307611795088661</v>
+        <v>0.2165431892581324</v>
       </c>
       <c r="D3">
-        <v>0.1138332428996804</v>
+        <v>0.178981191911106</v>
       </c>
       <c r="E3">
-        <v>0.06026928132322418</v>
+        <v>0.1541985383094993</v>
       </c>
       <c r="F3">
-        <v>0.5211590751551327</v>
+        <v>1.409464753198712</v>
       </c>
       <c r="G3">
-        <v>0.2928000512881681</v>
+        <v>0.7993974093865361</v>
       </c>
       <c r="H3">
-        <v>0.2908704527163835</v>
+        <v>0.8971542511202841</v>
       </c>
       <c r="I3">
-        <v>0.357730598596401</v>
+        <v>0.9775430492751234</v>
       </c>
       <c r="J3">
-        <v>0.05685080106983342</v>
+        <v>0.1781929182568351</v>
       </c>
       <c r="K3">
-        <v>3.179270367326922</v>
+        <v>1.219001405342397</v>
       </c>
       <c r="L3">
-        <v>0.06787316569059065</v>
+        <v>0.206983429835395</v>
       </c>
       <c r="M3">
-        <v>0.6638268316128872</v>
+        <v>0.4021128343716143</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.176918271079828</v>
+        <v>3.410656766872208</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1235531623221107</v>
+        <v>0.2151670069206375</v>
       </c>
       <c r="D4">
-        <v>0.106984118154827</v>
+        <v>0.1774449886228737</v>
       </c>
       <c r="E4">
-        <v>0.05930081658823916</v>
+        <v>0.1544862713373902</v>
       </c>
       <c r="F4">
-        <v>0.522894179551578</v>
+        <v>1.418445943268999</v>
       </c>
       <c r="G4">
-        <v>0.296447051680623</v>
+        <v>0.8064239995019662</v>
       </c>
       <c r="H4">
-        <v>0.2970550794436519</v>
+        <v>0.9034224952255201</v>
       </c>
       <c r="I4">
-        <v>0.3597237459735254</v>
+        <v>0.9841093030528008</v>
       </c>
       <c r="J4">
-        <v>0.05805076478610793</v>
+        <v>0.1792420378963797</v>
       </c>
       <c r="K4">
-        <v>2.890880981562844</v>
+        <v>1.124699482024141</v>
       </c>
       <c r="L4">
-        <v>0.06865138900330514</v>
+        <v>0.2079471897897811</v>
       </c>
       <c r="M4">
-        <v>0.6044353660440436</v>
+        <v>0.3836044263131484</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.197340614095353</v>
+        <v>3.438492064420174</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1206392412325812</v>
+        <v>0.2146246458322167</v>
       </c>
       <c r="D5">
-        <v>0.1042077642068122</v>
+        <v>0.1768314853837722</v>
       </c>
       <c r="E5">
-        <v>0.05892304026587958</v>
+        <v>0.1546167163778467</v>
       </c>
       <c r="F5">
-        <v>0.5239189871816734</v>
+        <v>1.422304952041223</v>
       </c>
       <c r="G5">
-        <v>0.2981858527028152</v>
+        <v>0.8094296522743036</v>
       </c>
       <c r="H5">
-        <v>0.2997324291151457</v>
+        <v>0.9060814756696658</v>
       </c>
       <c r="I5">
-        <v>0.3607629114010003</v>
+        <v>0.9869259158111099</v>
       </c>
       <c r="J5">
-        <v>0.05856173021977895</v>
+        <v>0.1796857249079533</v>
       </c>
       <c r="K5">
-        <v>2.773284562689781</v>
+        <v>1.086194639792353</v>
       </c>
       <c r="L5">
-        <v>0.06899030707122833</v>
+        <v>0.2083567690147827</v>
       </c>
       <c r="M5">
-        <v>0.580232840838228</v>
+        <v>0.3760620171435818</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.206524775027418</v>
+        <v>3.45035335112216</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1201567633987111</v>
+        <v>0.2145357039270266</v>
       </c>
       <c r="D6">
-        <v>0.1037476148480536</v>
+        <v>0.1767303719648794</v>
       </c>
       <c r="E6">
-        <v>0.05886131553662821</v>
+        <v>0.1546391743013604</v>
       </c>
       <c r="F6">
-        <v>0.5241079833839919</v>
+        <v>1.422957762851738</v>
       </c>
       <c r="G6">
-        <v>0.2984895090868562</v>
+        <v>0.8099373266523173</v>
       </c>
       <c r="H6">
-        <v>0.300186341990873</v>
+        <v>0.9065293169279443</v>
       </c>
       <c r="I6">
-        <v>0.3609489098027652</v>
+        <v>0.9874021164895055</v>
       </c>
       <c r="J6">
-        <v>0.05864788830124468</v>
+        <v>0.179760375380436</v>
       </c>
       <c r="K6">
-        <v>2.753752503440438</v>
+        <v>1.079796434883093</v>
       </c>
       <c r="L6">
-        <v>0.06904788664874317</v>
+        <v>0.2084257970593857</v>
       </c>
       <c r="M6">
-        <v>0.5762138700434107</v>
+        <v>0.374809618968527</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.208100854581588</v>
+        <v>3.452354198032623</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.123513771082699</v>
+        <v>0.2151596176440904</v>
       </c>
       <c r="D7">
-        <v>0.106946616899819</v>
+        <v>0.1774366639244533</v>
       </c>
       <c r="E7">
-        <v>0.0592956540873022</v>
+        <v>0.1544879771126872</v>
       </c>
       <c r="F7">
-        <v>0.5229067304234434</v>
+        <v>1.418497181052963</v>
       </c>
       <c r="G7">
-        <v>0.2964694937885994</v>
+        <v>0.8064639589678322</v>
       </c>
       <c r="H7">
-        <v>0.2970905577622105</v>
+        <v>0.9034579315276261</v>
       </c>
       <c r="I7">
-        <v>0.3597368534841152</v>
+        <v>0.9841467187556496</v>
       </c>
       <c r="J7">
-        <v>0.05805756753544777</v>
+        <v>0.1792479561553471</v>
       </c>
       <c r="K7">
-        <v>2.889295372799126</v>
+        <v>1.124180496208055</v>
       </c>
       <c r="L7">
-        <v>0.06865587216503144</v>
+        <v>0.2079526453065057</v>
       </c>
       <c r="M7">
-        <v>0.6041089696435407</v>
+        <v>0.3835027062645722</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.197461030489734</v>
+        <v>3.438649932134894</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1385364791233599</v>
+        <v>0.2180744885423991</v>
       </c>
       <c r="D8">
-        <v>0.1211948943802241</v>
+        <v>0.1806629818994452</v>
       </c>
       <c r="E8">
-        <v>0.06136188979104595</v>
+        <v>0.1539365063408908</v>
       </c>
       <c r="F8">
-        <v>0.5204294345587712</v>
+        <v>1.400561539909404</v>
       </c>
       <c r="G8">
-        <v>0.2898041809502914</v>
+        <v>0.7923860544062578</v>
       </c>
       <c r="H8">
-        <v>0.2848220817910629</v>
+        <v>0.8908229873873736</v>
       </c>
       <c r="I8">
-        <v>0.35640518427914</v>
+        <v>0.9710175998499047</v>
       </c>
       <c r="J8">
-        <v>0.05564683599014408</v>
+        <v>0.1771286149909788</v>
       </c>
       <c r="K8">
-        <v>3.486822356336347</v>
+        <v>1.319362082923874</v>
       </c>
       <c r="L8">
-        <v>0.06711850838448363</v>
+        <v>0.206012502821677</v>
       </c>
       <c r="M8">
-        <v>0.7272189119980226</v>
+        <v>0.4218610243489351</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.158170389606042</v>
+        <v>3.382725845081922</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1688397924668692</v>
+        <v>0.2243659617108307</v>
       </c>
       <c r="D9">
-        <v>0.1496776737128869</v>
+        <v>0.187378292037323</v>
       </c>
       <c r="E9">
-        <v>0.06598789503624936</v>
+        <v>0.153269110166125</v>
       </c>
       <c r="F9">
-        <v>0.5266034765885834</v>
+        <v>1.371672116916486</v>
       </c>
       <c r="G9">
-        <v>0.2856128271132334</v>
+        <v>0.7692789276576448</v>
       </c>
       <c r="H9">
-        <v>0.2661218635446829</v>
+        <v>0.8693449079835034</v>
       </c>
       <c r="I9">
-        <v>0.3577559491599516</v>
+        <v>0.9497156579295307</v>
       </c>
       <c r="J9">
-        <v>0.05165208008581246</v>
+        <v>0.1734814492440915</v>
       </c>
       <c r="K9">
-        <v>4.658301914363506</v>
+        <v>1.699508284553303</v>
       </c>
       <c r="L9">
-        <v>0.06482794825692295</v>
+        <v>0.2027374707224148</v>
       </c>
       <c r="M9">
-        <v>0.9691047751250323</v>
+        <v>0.4970365062623188</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.111086285104022</v>
+        <v>3.289428094081828</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1917143066956015</v>
+        <v>0.2293348874204355</v>
       </c>
       <c r="D10">
-        <v>0.1710062226529629</v>
+        <v>0.1925448336140505</v>
       </c>
       <c r="E10">
-        <v>0.06977354352452281</v>
+        <v>0.1530296039520884</v>
       </c>
       <c r="F10">
-        <v>0.5387471078620365</v>
+        <v>1.354277299707952</v>
       </c>
       <c r="G10">
-        <v>0.2887418949283216</v>
+        <v>0.7550537264850661</v>
       </c>
       <c r="H10">
-        <v>0.2560009085007096</v>
+        <v>0.8555740686003261</v>
       </c>
       <c r="I10">
-        <v>0.3641886758977435</v>
+        <v>0.9367755231315513</v>
       </c>
       <c r="J10">
-        <v>0.04919801244536792</v>
+        <v>0.1711111160177676</v>
       </c>
       <c r="K10">
-        <v>5.520866414084992</v>
+        <v>1.977092011178286</v>
       </c>
       <c r="L10">
-        <v>0.0636186258754563</v>
+        <v>0.2006527261532192</v>
       </c>
       <c r="M10">
-        <v>1.147552523711184</v>
+        <v>0.5522149919310806</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.097184272597985</v>
+        <v>3.230875517651882</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2022759930074329</v>
+        <v>0.2316697891734236</v>
       </c>
       <c r="D11">
-        <v>0.1808136569341627</v>
+        <v>0.1949449644574628</v>
       </c>
       <c r="E11">
-        <v>0.07158844857451641</v>
+        <v>0.1529747854928338</v>
       </c>
       <c r="F11">
-        <v>0.5461310309032186</v>
+        <v>1.347195760099559</v>
       </c>
       <c r="G11">
-        <v>0.2917007825167417</v>
+        <v>0.7491816205754134</v>
       </c>
       <c r="H11">
-        <v>0.2522650885907751</v>
+        <v>0.849745178574338</v>
       </c>
       <c r="I11">
-        <v>0.3684455843885104</v>
+        <v>0.9314775094429706</v>
       </c>
       <c r="J11">
-        <v>0.04819404030092755</v>
+        <v>0.1700997310764141</v>
       </c>
       <c r="K11">
-        <v>5.914176207561411</v>
+        <v>2.102976933282605</v>
       </c>
       <c r="L11">
-        <v>0.063178816505431</v>
+        <v>0.1997738139764778</v>
       </c>
       <c r="M11">
-        <v>1.229001702516214</v>
+        <v>0.5773006172552329</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.095923381582367</v>
+        <v>3.206411413065666</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2062998449519569</v>
+        <v>0.2325645859757941</v>
       </c>
       <c r="D12">
-        <v>0.1845440613078182</v>
+        <v>0.1958609182532314</v>
       </c>
       <c r="E12">
-        <v>0.07228981361129527</v>
+        <v>0.1529617829178314</v>
       </c>
       <c r="F12">
-        <v>0.5492130241667468</v>
+        <v>1.344633738530732</v>
       </c>
       <c r="G12">
-        <v>0.2930587389805908</v>
+        <v>0.7470442990723569</v>
       </c>
       <c r="H12">
-        <v>0.2509826976697269</v>
+        <v>0.8476005358310843</v>
       </c>
       <c r="I12">
-        <v>0.3702621899191172</v>
+        <v>0.9295559416262549</v>
       </c>
       <c r="J12">
-        <v>0.04783074308759794</v>
+        <v>0.1697263504065045</v>
       </c>
       <c r="K12">
-        <v>6.063288752423603</v>
+        <v>2.150587729481913</v>
       </c>
       <c r="L12">
-        <v>0.06302880433588953</v>
+        <v>0.1994509564603604</v>
       </c>
       <c r="M12">
-        <v>1.259893052346399</v>
+        <v>0.5867971493707529</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.096224954389058</v>
+        <v>3.197460076752279</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2054321201911904</v>
+        <v>0.2323714046445389</v>
       </c>
       <c r="D13">
-        <v>0.1837398921473863</v>
+        <v>0.1956633379441115</v>
       </c>
       <c r="E13">
-        <v>0.07213812245332818</v>
+        <v>0.1529642387577503</v>
       </c>
       <c r="F13">
-        <v>0.5485362417389084</v>
+        <v>1.345180195645824</v>
       </c>
       <c r="G13">
-        <v>0.2927554389057576</v>
+        <v>0.7475007676408865</v>
       </c>
       <c r="H13">
-        <v>0.2512528766827273</v>
+        <v>0.8480596374358953</v>
       </c>
       <c r="I13">
-        <v>0.3698616311186882</v>
+        <v>0.9299660189600374</v>
       </c>
       <c r="J13">
-        <v>0.04790822267197825</v>
+        <v>0.1698063374173433</v>
       </c>
       <c r="K13">
-        <v>6.031166230140855</v>
+        <v>2.140336570018803</v>
       </c>
       <c r="L13">
-        <v>0.06306036566390105</v>
+        <v>0.1995200466026823</v>
       </c>
       <c r="M13">
-        <v>1.253237745352379</v>
+        <v>0.5847520382029074</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.096124510047815</v>
+        <v>3.199373994025592</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2026065377033035</v>
+        <v>0.2317431923415114</v>
       </c>
       <c r="D14">
-        <v>0.1811202193731418</v>
+        <v>0.1950201792297008</v>
       </c>
       <c r="E14">
-        <v>0.07164586321413324</v>
+        <v>0.1529735604843125</v>
       </c>
       <c r="F14">
-        <v>0.5463787494265944</v>
+        <v>1.346982583767335</v>
       </c>
       <c r="G14">
-        <v>0.2918076432810537</v>
+        <v>0.7490040508867324</v>
       </c>
       <c r="H14">
-        <v>0.2521568900870435</v>
+        <v>0.8495674822858632</v>
       </c>
       <c r="I14">
-        <v>0.3685908579775017</v>
+        <v>0.9313177236249928</v>
       </c>
       <c r="J14">
-        <v>0.04816380891334582</v>
+        <v>0.1700688203053815</v>
       </c>
       <c r="K14">
-        <v>5.926440035189728</v>
+        <v>2.106895104148975</v>
       </c>
       <c r="L14">
-        <v>0.06316613955849348</v>
+        <v>0.1997470526414844</v>
       </c>
       <c r="M14">
-        <v>1.231542129237113</v>
+        <v>0.5780819634497476</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.095932275217976</v>
+        <v>3.205668712242215</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2008790205409241</v>
+        <v>0.2313597744248597</v>
       </c>
       <c r="D15">
-        <v>0.179517793071625</v>
+        <v>0.1946271447883277</v>
       </c>
       <c r="E15">
-        <v>0.07134619969226108</v>
+        <v>0.152980279526389</v>
       </c>
       <c r="F15">
-        <v>0.5450950180585821</v>
+        <v>1.348102175712057</v>
       </c>
       <c r="G15">
-        <v>0.2912585331747977</v>
+        <v>0.7499361017145958</v>
       </c>
       <c r="H15">
-        <v>0.2527280803009049</v>
+        <v>0.8504992373168108</v>
       </c>
       <c r="I15">
-        <v>0.3678395267638095</v>
+        <v>0.9321567103157378</v>
       </c>
       <c r="J15">
-        <v>0.04832258404768375</v>
+        <v>0.1702308497128957</v>
       </c>
       <c r="K15">
-        <v>5.862316257130203</v>
+        <v>2.086403453352204</v>
       </c>
       <c r="L15">
-        <v>0.06323310295285012</v>
+        <v>0.1998873978834084</v>
       </c>
       <c r="M15">
-        <v>1.218259513425252</v>
+        <v>0.5739959599319917</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.095917549405868</v>
+        <v>3.2095651418811</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1910273771471225</v>
+        <v>0.2291837873872282</v>
       </c>
       <c r="D16">
-        <v>0.1703675174689181</v>
+        <v>0.1923889746156107</v>
       </c>
       <c r="E16">
-        <v>0.06965686603914278</v>
+        <v>0.1530342733521799</v>
       </c>
       <c r="F16">
-        <v>0.5383035229268671</v>
+        <v>1.354756829520014</v>
       </c>
       <c r="G16">
-        <v>0.2885808246794141</v>
+        <v>0.7554495515009947</v>
       </c>
       <c r="H16">
-        <v>0.256263148798844</v>
+        <v>0.8559637645121896</v>
       </c>
       <c r="I16">
-        <v>0.3639383672567789</v>
+        <v>0.9371336072997067</v>
       </c>
       <c r="J16">
-        <v>0.04926594685600705</v>
+        <v>0.1711785575691049</v>
       </c>
       <c r="K16">
-        <v>5.495184790649489</v>
+        <v>1.968857035183362</v>
       </c>
       <c r="L16">
-        <v>0.06364964472166434</v>
+        <v>0.2007115609733106</v>
       </c>
       <c r="M16">
-        <v>1.14223587497743</v>
+        <v>0.5505752234590062</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.097372841522201</v>
+        <v>3.232518039396751</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1850249999620672</v>
+        <v>0.2278679068574547</v>
       </c>
       <c r="D17">
-        <v>0.1647820036441061</v>
+        <v>0.1910286311524345</v>
       </c>
       <c r="E17">
-        <v>0.0686448047456274</v>
+        <v>0.1530812416118899</v>
       </c>
       <c r="F17">
-        <v>0.5346262337568675</v>
+        <v>1.359052228876834</v>
       </c>
       <c r="G17">
-        <v>0.2873429490420492</v>
+        <v>0.7589854241192739</v>
       </c>
       <c r="H17">
-        <v>0.2586593162751782</v>
+        <v>0.8594276271691896</v>
       </c>
       <c r="I17">
-        <v>0.3618951129992922</v>
+        <v>0.9403375396610087</v>
       </c>
       <c r="J17">
-        <v>0.04987395705377651</v>
+        <v>0.171777070987563</v>
       </c>
       <c r="K17">
-        <v>5.270227010024314</v>
+        <v>1.896644183168462</v>
       </c>
       <c r="L17">
-        <v>0.06393389901496249</v>
+        <v>0.2012349321166695</v>
       </c>
       <c r="M17">
-        <v>1.095673884822226</v>
+        <v>0.5362029710034903</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.099597665654713</v>
+        <v>3.247155418250301</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.181587146672598</v>
+        <v>0.2271180662950627</v>
       </c>
       <c r="D18">
-        <v>0.1615791516510399</v>
+        <v>0.1902508946749606</v>
       </c>
       <c r="E18">
-        <v>0.06807138012615965</v>
+        <v>0.1531133535688767</v>
       </c>
       <c r="F18">
-        <v>0.532685029501792</v>
+        <v>1.361601086537306</v>
       </c>
       <c r="G18">
-        <v>0.2867744196088609</v>
+        <v>0.7610755354211278</v>
       </c>
       <c r="H18">
-        <v>0.260118780315679</v>
+        <v>0.8614609437323466</v>
       </c>
       <c r="I18">
-        <v>0.3608442897919559</v>
+        <v>0.9422357482279011</v>
       </c>
       <c r="J18">
-        <v>0.05023420180281235</v>
+        <v>0.1721276168208661</v>
       </c>
       <c r="K18">
-        <v>5.140921607183429</v>
+        <v>1.855072801443214</v>
       </c>
       <c r="L18">
-        <v>0.06410773568626382</v>
+        <v>0.2015424993265924</v>
       </c>
       <c r="M18">
-        <v>1.068917710089607</v>
+        <v>0.5279350253798611</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.101350659673756</v>
+        <v>3.255778844071642</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1804255913526731</v>
+        <v>0.2268653915906498</v>
       </c>
       <c r="D19">
-        <v>0.1604963595914199</v>
+        <v>0.1899883759869994</v>
       </c>
       <c r="E19">
-        <v>0.06787869800148982</v>
+        <v>0.1531251024172988</v>
       </c>
       <c r="F19">
-        <v>0.532057091472339</v>
+        <v>1.362477525449016</v>
       </c>
       <c r="G19">
-        <v>0.2866060740195522</v>
+        <v>0.7617928874202917</v>
       </c>
       <c r="H19">
-        <v>0.2606266662100793</v>
+        <v>0.8621564305428109</v>
       </c>
       <c r="I19">
-        <v>0.3605094748414501</v>
+        <v>0.9428879611237022</v>
       </c>
       <c r="J19">
-        <v>0.05035796229289957</v>
+        <v>0.1722473873966273</v>
       </c>
       <c r="K19">
-        <v>5.097154293561914</v>
+        <v>1.840991279160846</v>
       </c>
       <c r="L19">
-        <v>0.06416835011717481</v>
+        <v>0.2016477597875195</v>
       </c>
       <c r="M19">
-        <v>1.059862564553391</v>
+        <v>0.5251354192225861</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.102023988901522</v>
+        <v>3.258733680488717</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1856624431668195</v>
+        <v>0.22800725882108</v>
       </c>
       <c r="D20">
-        <v>0.1653755679574118</v>
+        <v>0.1911729565664047</v>
       </c>
       <c r="E20">
-        <v>0.06875163607505286</v>
+        <v>0.1530757144405577</v>
       </c>
       <c r="F20">
-        <v>0.5349995622130947</v>
+        <v>1.358586876607674</v>
       </c>
       <c r="G20">
-        <v>0.2874597575297884</v>
+        <v>0.7586031889528044</v>
       </c>
       <c r="H20">
-        <v>0.2583957786010203</v>
+        <v>0.8590546502948442</v>
       </c>
       <c r="I20">
-        <v>0.3620996523056874</v>
+        <v>0.9399907424461986</v>
       </c>
       <c r="J20">
-        <v>0.04980813807216045</v>
+        <v>0.1717127065958923</v>
       </c>
       <c r="K20">
-        <v>5.294165127386407</v>
+        <v>1.904335160540313</v>
       </c>
       <c r="L20">
-        <v>0.06390256466507438</v>
+        <v>0.2011785418488437</v>
       </c>
       <c r="M20">
-        <v>1.100627831582727</v>
+        <v>0.537733072017005</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.099311482290986</v>
+        <v>3.245576087549807</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2034358022177258</v>
+        <v>0.2319274260460276</v>
       </c>
       <c r="D21">
-        <v>0.1818892197906479</v>
+        <v>0.1952088992105274</v>
       </c>
       <c r="E21">
-        <v>0.07179006275490352</v>
+        <v>0.1529706121983416</v>
       </c>
       <c r="F21">
-        <v>0.5470045461980106</v>
+        <v>1.346449932342324</v>
       </c>
       <c r="G21">
-        <v>0.2920794500004504</v>
+        <v>0.7485601560904129</v>
       </c>
       <c r="H21">
-        <v>0.2518877076965254</v>
+        <v>0.8491228918868217</v>
       </c>
       <c r="I21">
-        <v>0.3689584519348514</v>
+        <v>0.9309183967765051</v>
       </c>
       <c r="J21">
-        <v>0.04808827279253158</v>
+        <v>0.1699914620167338</v>
       </c>
       <c r="K21">
-        <v>5.95719556812611</v>
+        <v>2.116719301697913</v>
       </c>
       <c r="L21">
-        <v>0.06313461692253597</v>
+        <v>0.1996801051035</v>
       </c>
       <c r="M21">
-        <v>1.23791326992577</v>
+        <v>0.5800412085354765</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.095967173575971</v>
+        <v>3.203811311503586</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2151947678021884</v>
+        <v>0.234551340765293</v>
       </c>
       <c r="D22">
-        <v>0.1927790099448998</v>
+        <v>0.1978878251857168</v>
       </c>
       <c r="E22">
-        <v>0.07385842098844364</v>
+        <v>0.1529471164726139</v>
       </c>
       <c r="F22">
-        <v>0.5565261427980133</v>
+        <v>1.339214898800464</v>
       </c>
       <c r="G22">
-        <v>0.2964915010409399</v>
+        <v>0.7424996611943442</v>
       </c>
       <c r="H22">
-        <v>0.2484091571344536</v>
+        <v>0.842996978400663</v>
       </c>
       <c r="I22">
-        <v>0.3746404600000304</v>
+        <v>0.9254826660756379</v>
       </c>
       <c r="J22">
-        <v>0.04706303012861568</v>
+        <v>0.1689225323360635</v>
       </c>
       <c r="K22">
-        <v>6.391564147329177</v>
+        <v>2.255178758382101</v>
       </c>
       <c r="L22">
-        <v>0.06272943335585524</v>
+        <v>0.1987588791546138</v>
       </c>
       <c r="M22">
-        <v>1.32792361833539</v>
+        <v>0.6076751155649731</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.098348425495658</v>
+        <v>3.178338387949154</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2089050207034404</v>
+        <v>0.2331452792125361</v>
       </c>
       <c r="D23">
-        <v>0.1869575285820986</v>
+        <v>0.1964542918840095</v>
       </c>
       <c r="E23">
-        <v>0.07274668157666397</v>
+        <v>0.1529555306489705</v>
       </c>
       <c r="F23">
-        <v>0.5512845608587114</v>
+        <v>1.343012568431107</v>
       </c>
       <c r="G23">
-        <v>0.2940034611324194</v>
+        <v>0.7456881585115909</v>
       </c>
       <c r="H23">
-        <v>0.2501922430759507</v>
+        <v>0.8462330895549286</v>
       </c>
       <c r="I23">
-        <v>0.3714935127594785</v>
+        <v>0.9283386408100256</v>
       </c>
       <c r="J23">
-        <v>0.04760093145376487</v>
+        <v>0.1694879192391525</v>
       </c>
       <c r="K23">
-        <v>6.159623657853899</v>
+        <v>2.181313007413337</v>
       </c>
       <c r="L23">
-        <v>0.06293660560070791</v>
+        <v>0.1992452459397889</v>
       </c>
       <c r="M23">
-        <v>1.279853986087232</v>
+        <v>0.5929281375728124</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.096641913943358</v>
+        <v>3.19176685378477</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.1853742147681885</v>
+        <v>0.2279442369955547</v>
       </c>
       <c r="D24">
-        <v>0.1651071916799083</v>
+        <v>0.1911076935128762</v>
       </c>
       <c r="E24">
-        <v>0.06870331145217889</v>
+        <v>0.1530781973578819</v>
       </c>
       <c r="F24">
-        <v>0.5348302431965664</v>
+        <v>1.358797015123265</v>
       </c>
       <c r="G24">
-        <v>0.2874065038076523</v>
+        <v>0.7587758190275125</v>
       </c>
       <c r="H24">
-        <v>0.2585146695159111</v>
+        <v>0.8592231426366439</v>
       </c>
       <c r="I24">
-        <v>0.3620067952481989</v>
+        <v>0.9401473543331491</v>
       </c>
       <c r="J24">
-        <v>0.04983786158592807</v>
+        <v>0.1717417856380052</v>
       </c>
       <c r="K24">
-        <v>5.28334262720665</v>
+        <v>1.900858241536753</v>
       </c>
       <c r="L24">
-        <v>0.06391669853423565</v>
+        <v>0.2012040150982344</v>
       </c>
       <c r="M24">
-        <v>1.098388112649261</v>
+        <v>0.5370413293301368</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.099439393471826</v>
+        <v>3.246289454453589</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1605420237560509</v>
+        <v>0.2226027852000101</v>
       </c>
       <c r="D25">
-        <v>0.1419071671816283</v>
+        <v>0.1855204493391369</v>
       </c>
       <c r="E25">
-        <v>0.0646712890104606</v>
+        <v>0.1534054964318798</v>
       </c>
       <c r="F25">
-        <v>0.5236641565755775</v>
+        <v>1.378814863556244</v>
       </c>
       <c r="G25">
-        <v>0.2857167744063673</v>
+        <v>0.7750474181728535</v>
       </c>
       <c r="H25">
-        <v>0.270572078492691</v>
+        <v>0.8748023290960205</v>
       </c>
       <c r="I25">
-        <v>0.3564832282786092</v>
+        <v>0.9550024981062322</v>
       </c>
       <c r="J25">
-        <v>0.05265091232404728</v>
+        <v>0.1744137285232554</v>
       </c>
       <c r="K25">
-        <v>4.341213185402296</v>
+        <v>1.596960189264848</v>
       </c>
       <c r="L25">
-        <v>0.065366871403576</v>
+        <v>0.2035669060201393</v>
       </c>
       <c r="M25">
-        <v>0.9035738434546019</v>
+        <v>0.4767070216770932</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.120374164782604</v>
+        <v>3.312913696378146</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_115/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_115/res_line/pl_mw.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.2189033714348056</v>
+        <v>0.1426606180024521</v>
       </c>
       <c r="D2">
-        <v>0.181563596258755</v>
+        <v>0.1250896336294574</v>
       </c>
       <c r="E2">
-        <v>0.1538151639921121</v>
+        <v>0.06195929171773429</v>
       </c>
       <c r="F2">
-        <v>1.396127015626156</v>
+        <v>0.5204737905818249</v>
       </c>
       <c r="G2">
-        <v>0.7888758353158636</v>
+        <v>0.2885711788557757</v>
       </c>
       <c r="H2">
-        <v>0.8876228856497974</v>
+        <v>0.2818482119279864</v>
       </c>
       <c r="I2">
-        <v>0.9677609843999697</v>
+        <v>0.3560137468205014</v>
       </c>
       <c r="J2">
-        <v>0.17658885258545</v>
+        <v>0.05504202830367255</v>
       </c>
       <c r="K2">
-        <v>1.3720748851091</v>
+        <v>3.648633793319902</v>
       </c>
       <c r="L2">
-        <v>0.2055227137656512</v>
+        <v>0.06674984094645353</v>
       </c>
       <c r="M2">
-        <v>0.4322521183767378</v>
+        <v>0.7605916968514634</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>3.368680463128655</v>
+        <v>1.149467332410978</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.2165431892581324</v>
+        <v>0.1307611795088661</v>
       </c>
       <c r="D3">
-        <v>0.178981191911106</v>
+        <v>0.1138332428994531</v>
       </c>
       <c r="E3">
-        <v>0.1541985383094993</v>
+        <v>0.06026928132327924</v>
       </c>
       <c r="F3">
-        <v>1.409464753198712</v>
+        <v>0.521159075155154</v>
       </c>
       <c r="G3">
-        <v>0.7993974093865361</v>
+        <v>0.2928000512881184</v>
       </c>
       <c r="H3">
-        <v>0.8971542511202841</v>
+        <v>0.2908704527163835</v>
       </c>
       <c r="I3">
-        <v>0.9775430492751234</v>
+        <v>0.3577305985964188</v>
       </c>
       <c r="J3">
-        <v>0.1781929182568351</v>
+        <v>0.05685080106980323</v>
       </c>
       <c r="K3">
-        <v>1.219001405342397</v>
+        <v>3.179270367326751</v>
       </c>
       <c r="L3">
-        <v>0.206983429835395</v>
+        <v>0.0678731656905196</v>
       </c>
       <c r="M3">
-        <v>0.4021128343716143</v>
+        <v>0.6638268316129015</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>3.410656766872208</v>
+        <v>1.176918271079828</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.2151670069206375</v>
+        <v>0.1235531623221249</v>
       </c>
       <c r="D4">
-        <v>0.1774449886228737</v>
+        <v>0.1069841181547133</v>
       </c>
       <c r="E4">
-        <v>0.1544862713373902</v>
+        <v>0.05930081658825515</v>
       </c>
       <c r="F4">
-        <v>1.418445943268999</v>
+        <v>0.522894179551578</v>
       </c>
       <c r="G4">
-        <v>0.8064239995019662</v>
+        <v>0.2964470516806159</v>
       </c>
       <c r="H4">
-        <v>0.9034224952255201</v>
+        <v>0.2970550794436519</v>
       </c>
       <c r="I4">
-        <v>0.9841093030528008</v>
+        <v>0.3597237459735361</v>
       </c>
       <c r="J4">
-        <v>0.1792420378963797</v>
+        <v>0.05805076478604576</v>
       </c>
       <c r="K4">
-        <v>1.124699482024141</v>
+        <v>2.890880981562759</v>
       </c>
       <c r="L4">
-        <v>0.2079471897897811</v>
+        <v>0.06865138900332646</v>
       </c>
       <c r="M4">
-        <v>0.3836044263131484</v>
+        <v>0.6044353660440507</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>3.438492064420174</v>
+        <v>1.197340614095268</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.2146246458322167</v>
+        <v>0.1206392412326522</v>
       </c>
       <c r="D5">
-        <v>0.1768314853837722</v>
+        <v>0.1042077642065919</v>
       </c>
       <c r="E5">
-        <v>0.1546167163778467</v>
+        <v>0.058923040265908</v>
       </c>
       <c r="F5">
-        <v>1.422304952041223</v>
+        <v>0.5239189871816805</v>
       </c>
       <c r="G5">
-        <v>0.8094296522743036</v>
+        <v>0.2981858527028791</v>
       </c>
       <c r="H5">
-        <v>0.9060814756696658</v>
+        <v>0.29973242911516</v>
       </c>
       <c r="I5">
-        <v>0.9869259158111099</v>
+        <v>0.3607629114010003</v>
       </c>
       <c r="J5">
-        <v>0.1796857249079533</v>
+        <v>0.05856173021977895</v>
       </c>
       <c r="K5">
-        <v>1.086194639792353</v>
+        <v>2.773284562689781</v>
       </c>
       <c r="L5">
-        <v>0.2083567690147827</v>
+        <v>0.06899030707115728</v>
       </c>
       <c r="M5">
-        <v>0.3760620171435818</v>
+        <v>0.5802328408382138</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>3.45035335112216</v>
+        <v>1.206524775027404</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2145357039270266</v>
+        <v>0.1201567633989526</v>
       </c>
       <c r="D6">
-        <v>0.1767303719648794</v>
+        <v>0.1037476148483023</v>
       </c>
       <c r="E6">
-        <v>0.1546391743013604</v>
+        <v>0.05886131553659979</v>
       </c>
       <c r="F6">
-        <v>1.422957762851738</v>
+        <v>0.5241079833839777</v>
       </c>
       <c r="G6">
-        <v>0.8099373266523173</v>
+        <v>0.298489509086906</v>
       </c>
       <c r="H6">
-        <v>0.9065293169279443</v>
+        <v>0.3001863419908801</v>
       </c>
       <c r="I6">
-        <v>0.9874021164895055</v>
+        <v>0.3609489098027652</v>
       </c>
       <c r="J6">
-        <v>0.179760375380436</v>
+        <v>0.0586478883012056</v>
       </c>
       <c r="K6">
-        <v>1.079796434883093</v>
+        <v>2.753752503440523</v>
       </c>
       <c r="L6">
-        <v>0.2084257970593857</v>
+        <v>0.06904788664878403</v>
       </c>
       <c r="M6">
-        <v>0.374809618968527</v>
+        <v>0.5762138700434036</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>3.452354198032623</v>
+        <v>1.20810085458163</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.2151596176440904</v>
+        <v>0.1235137710829264</v>
       </c>
       <c r="D7">
-        <v>0.1774366639244533</v>
+        <v>0.1069466168997977</v>
       </c>
       <c r="E7">
-        <v>0.1544879771126872</v>
+        <v>0.05929565408730575</v>
       </c>
       <c r="F7">
-        <v>1.418497181052963</v>
+        <v>0.5229067304234221</v>
       </c>
       <c r="G7">
-        <v>0.8064639589678322</v>
+        <v>0.2964694937885639</v>
       </c>
       <c r="H7">
-        <v>0.9034579315276261</v>
+        <v>0.2970905577622318</v>
       </c>
       <c r="I7">
-        <v>0.9841467187556496</v>
+        <v>0.3597368534841365</v>
       </c>
       <c r="J7">
-        <v>0.1792479561553471</v>
+        <v>0.05805756753542468</v>
       </c>
       <c r="K7">
-        <v>1.124180496208055</v>
+        <v>2.889295372799012</v>
       </c>
       <c r="L7">
-        <v>0.2079526453065057</v>
+        <v>0.0686558721648538</v>
       </c>
       <c r="M7">
-        <v>0.3835027062645722</v>
+        <v>0.6041089696435407</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>3.438649932134894</v>
+        <v>1.197461030489762</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.2180744885423991</v>
+        <v>0.138536479123303</v>
       </c>
       <c r="D8">
-        <v>0.1806629818994452</v>
+        <v>0.1211948943801957</v>
       </c>
       <c r="E8">
-        <v>0.1539365063408908</v>
+        <v>0.06136188979103707</v>
       </c>
       <c r="F8">
-        <v>1.400561539909404</v>
+        <v>0.5204294345587712</v>
       </c>
       <c r="G8">
-        <v>0.7923860544062578</v>
+        <v>0.2898041809502985</v>
       </c>
       <c r="H8">
-        <v>0.8908229873873736</v>
+        <v>0.2848220817910487</v>
       </c>
       <c r="I8">
-        <v>0.9710175998499047</v>
+        <v>0.3564051842791365</v>
       </c>
       <c r="J8">
-        <v>0.1771286149909788</v>
+        <v>0.05564683599015652</v>
       </c>
       <c r="K8">
-        <v>1.319362082923874</v>
+        <v>3.486822356336347</v>
       </c>
       <c r="L8">
-        <v>0.206012502821677</v>
+        <v>0.06711850838435218</v>
       </c>
       <c r="M8">
-        <v>0.4218610243489351</v>
+        <v>0.7272189119980368</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>3.382725845081922</v>
+        <v>1.158170389606028</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2243659617108307</v>
+        <v>0.168839792466656</v>
       </c>
       <c r="D9">
-        <v>0.187378292037323</v>
+        <v>0.1496776737129721</v>
       </c>
       <c r="E9">
-        <v>0.153269110166125</v>
+        <v>0.0659878950362387</v>
       </c>
       <c r="F9">
-        <v>1.371672116916486</v>
+        <v>0.5266034765885834</v>
       </c>
       <c r="G9">
-        <v>0.7692789276576448</v>
+        <v>0.2856128271132619</v>
       </c>
       <c r="H9">
-        <v>0.8693449079835034</v>
+        <v>0.26612186354469</v>
       </c>
       <c r="I9">
-        <v>0.9497156579295307</v>
+        <v>0.3577559491599551</v>
       </c>
       <c r="J9">
-        <v>0.1734814492440915</v>
+        <v>0.05165208008579647</v>
       </c>
       <c r="K9">
-        <v>1.699508284553303</v>
+        <v>4.658301914363506</v>
       </c>
       <c r="L9">
-        <v>0.2027374707224148</v>
+        <v>0.06482794825673466</v>
       </c>
       <c r="M9">
-        <v>0.4970365062623188</v>
+        <v>0.969104775125011</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>3.289428094081828</v>
+        <v>1.111086285104079</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2293348874204355</v>
+        <v>0.1917143066956584</v>
       </c>
       <c r="D10">
-        <v>0.1925448336140505</v>
+        <v>0.171006222653034</v>
       </c>
       <c r="E10">
-        <v>0.1530296039520884</v>
+        <v>0.06977354352454057</v>
       </c>
       <c r="F10">
-        <v>1.354277299707952</v>
+        <v>0.5387471078620365</v>
       </c>
       <c r="G10">
-        <v>0.7550537264850661</v>
+        <v>0.2887418949283713</v>
       </c>
       <c r="H10">
-        <v>0.8555740686003261</v>
+        <v>0.2560009085007096</v>
       </c>
       <c r="I10">
-        <v>0.9367755231315513</v>
+        <v>0.3641886758977364</v>
       </c>
       <c r="J10">
-        <v>0.1711111160177676</v>
+        <v>0.04919801244531108</v>
       </c>
       <c r="K10">
-        <v>1.977092011178286</v>
+        <v>5.520866414084992</v>
       </c>
       <c r="L10">
-        <v>0.2006527261532192</v>
+        <v>0.06361862587547051</v>
       </c>
       <c r="M10">
-        <v>0.5522149919310806</v>
+        <v>1.14755252371117</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>3.230875517651882</v>
+        <v>1.097184272597971</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2316697891734236</v>
+        <v>0.2022759930076603</v>
       </c>
       <c r="D11">
-        <v>0.1949449644574628</v>
+        <v>0.1808136569342622</v>
       </c>
       <c r="E11">
-        <v>0.1529747854928338</v>
+        <v>0.07158844857452351</v>
       </c>
       <c r="F11">
-        <v>1.347195760099559</v>
+        <v>0.5461310309032257</v>
       </c>
       <c r="G11">
-        <v>0.7491816205754134</v>
+        <v>0.2917007825166991</v>
       </c>
       <c r="H11">
-        <v>0.849745178574338</v>
+        <v>0.2522650885907751</v>
       </c>
       <c r="I11">
-        <v>0.9314775094429706</v>
+        <v>0.3684455843884962</v>
       </c>
       <c r="J11">
-        <v>0.1700997310764141</v>
+        <v>0.0481940403009915</v>
       </c>
       <c r="K11">
-        <v>2.102976933282605</v>
+        <v>5.914176207561411</v>
       </c>
       <c r="L11">
-        <v>0.1997738139764778</v>
+        <v>0.06317881650546298</v>
       </c>
       <c r="M11">
-        <v>0.5773006172552329</v>
+        <v>1.229001702516214</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>3.206411413065666</v>
+        <v>1.095923381582381</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2325645859757941</v>
+        <v>0.2062998449522553</v>
       </c>
       <c r="D12">
-        <v>0.1958609182532314</v>
+        <v>0.1845440613078182</v>
       </c>
       <c r="E12">
-        <v>0.1529617829178314</v>
+        <v>0.07228981361129883</v>
       </c>
       <c r="F12">
-        <v>1.344633738530732</v>
+        <v>0.5492130241667468</v>
       </c>
       <c r="G12">
-        <v>0.7470442990723569</v>
+        <v>0.2930587389806618</v>
       </c>
       <c r="H12">
-        <v>0.8476005358310843</v>
+        <v>0.2509826976697198</v>
       </c>
       <c r="I12">
-        <v>0.9295559416262549</v>
+        <v>0.3702621899191314</v>
       </c>
       <c r="J12">
-        <v>0.1697263504065045</v>
+        <v>0.04783074308762103</v>
       </c>
       <c r="K12">
-        <v>2.150587729481913</v>
+        <v>6.063288752423603</v>
       </c>
       <c r="L12">
-        <v>0.1994509564603604</v>
+        <v>0.06302880433588598</v>
       </c>
       <c r="M12">
-        <v>0.5867971493707529</v>
+        <v>1.259893052346428</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>3.197460076752279</v>
+        <v>1.096224954389058</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2323714046445389</v>
+        <v>0.205432120190963</v>
       </c>
       <c r="D13">
-        <v>0.1956633379441115</v>
+        <v>0.1837398921473863</v>
       </c>
       <c r="E13">
-        <v>0.1529642387577503</v>
+        <v>0.07213812245334239</v>
       </c>
       <c r="F13">
-        <v>1.345180195645824</v>
+        <v>0.5485362417389155</v>
       </c>
       <c r="G13">
-        <v>0.7475007676408865</v>
+        <v>0.2927554389057718</v>
       </c>
       <c r="H13">
-        <v>0.8480596374358953</v>
+        <v>0.2512528766827273</v>
       </c>
       <c r="I13">
-        <v>0.9299660189600374</v>
+        <v>0.3698616311186953</v>
       </c>
       <c r="J13">
-        <v>0.1698063374173433</v>
+        <v>0.04790822267209016</v>
       </c>
       <c r="K13">
-        <v>2.140336570018803</v>
+        <v>6.031166230140741</v>
       </c>
       <c r="L13">
-        <v>0.1995200466026823</v>
+        <v>0.06306036566387618</v>
       </c>
       <c r="M13">
-        <v>0.5847520382029074</v>
+        <v>1.253237745352379</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>3.199373994025592</v>
+        <v>1.096124510047886</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2317431923415114</v>
+        <v>0.2026065377032893</v>
       </c>
       <c r="D14">
-        <v>0.1950201792297008</v>
+        <v>0.1811202193732981</v>
       </c>
       <c r="E14">
-        <v>0.1529735604843125</v>
+        <v>0.0716458632141368</v>
       </c>
       <c r="F14">
-        <v>1.346982583767335</v>
+        <v>0.5463787494266015</v>
       </c>
       <c r="G14">
-        <v>0.7490040508867324</v>
+        <v>0.2918076432810608</v>
       </c>
       <c r="H14">
-        <v>0.8495674822858632</v>
+        <v>0.2521568900870435</v>
       </c>
       <c r="I14">
-        <v>0.9313177236249928</v>
+        <v>0.368590857977523</v>
       </c>
       <c r="J14">
-        <v>0.1700688203053815</v>
+        <v>0.04816380891336891</v>
       </c>
       <c r="K14">
-        <v>2.106895104148975</v>
+        <v>5.926440035189785</v>
       </c>
       <c r="L14">
-        <v>0.1997470526414844</v>
+        <v>0.06316613955842598</v>
       </c>
       <c r="M14">
-        <v>0.5780819634497476</v>
+        <v>1.231542129237127</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>3.205668712242215</v>
+        <v>1.095932275218104</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2313597744248597</v>
+        <v>0.2008790205410946</v>
       </c>
       <c r="D15">
-        <v>0.1946271447883277</v>
+        <v>0.179517793071696</v>
       </c>
       <c r="E15">
-        <v>0.152980279526389</v>
+        <v>0.07134619969223976</v>
       </c>
       <c r="F15">
-        <v>1.348102175712057</v>
+        <v>0.5450950180585821</v>
       </c>
       <c r="G15">
-        <v>0.7499361017145958</v>
+        <v>0.2912585331747621</v>
       </c>
       <c r="H15">
-        <v>0.8504992373168108</v>
+        <v>0.252728080300912</v>
       </c>
       <c r="I15">
-        <v>0.9321567103157378</v>
+        <v>0.3678395267638166</v>
       </c>
       <c r="J15">
-        <v>0.1702308497128957</v>
+        <v>0.04832258404776368</v>
       </c>
       <c r="K15">
-        <v>2.086403453352204</v>
+        <v>5.86231625713009</v>
       </c>
       <c r="L15">
-        <v>0.1998873978834084</v>
+        <v>0.06323310295277551</v>
       </c>
       <c r="M15">
-        <v>0.5739959599319917</v>
+        <v>1.218259513425281</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>3.2095651418811</v>
+        <v>1.095917549405883</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2291837873872282</v>
+        <v>0.1910273771469662</v>
       </c>
       <c r="D16">
-        <v>0.1923889746156107</v>
+        <v>0.1703675174687902</v>
       </c>
       <c r="E16">
-        <v>0.1530342733521799</v>
+        <v>0.06965686603912857</v>
       </c>
       <c r="F16">
-        <v>1.354756829520014</v>
+        <v>0.5383035229268813</v>
       </c>
       <c r="G16">
-        <v>0.7554495515009947</v>
+        <v>0.2885808246794213</v>
       </c>
       <c r="H16">
-        <v>0.8559637645121896</v>
+        <v>0.2562631487988369</v>
       </c>
       <c r="I16">
-        <v>0.9371336072997067</v>
+        <v>0.363938367256786</v>
       </c>
       <c r="J16">
-        <v>0.1711785575691049</v>
+        <v>0.04926594685603369</v>
       </c>
       <c r="K16">
-        <v>1.968857035183362</v>
+        <v>5.495184790649319</v>
       </c>
       <c r="L16">
-        <v>0.2007115609733106</v>
+        <v>0.06364964472169987</v>
       </c>
       <c r="M16">
-        <v>0.5505752234590062</v>
+        <v>1.14223587497743</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>3.232518039396751</v>
+        <v>1.097372841522144</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2278679068574547</v>
+        <v>0.1850249999620388</v>
       </c>
       <c r="D17">
-        <v>0.1910286311524345</v>
+        <v>0.1647820036438787</v>
       </c>
       <c r="E17">
-        <v>0.1530812416118899</v>
+        <v>0.06864480474561674</v>
       </c>
       <c r="F17">
-        <v>1.359052228876834</v>
+        <v>0.5346262337568746</v>
       </c>
       <c r="G17">
-        <v>0.7589854241192739</v>
+        <v>0.2873429490420492</v>
       </c>
       <c r="H17">
-        <v>0.8594276271691896</v>
+        <v>0.2586593162752919</v>
       </c>
       <c r="I17">
-        <v>0.9403375396610087</v>
+        <v>0.3618951129993135</v>
       </c>
       <c r="J17">
-        <v>0.171777070987563</v>
+        <v>0.04987395705375874</v>
       </c>
       <c r="K17">
-        <v>1.896644183168462</v>
+        <v>5.270227010024371</v>
       </c>
       <c r="L17">
-        <v>0.2012349321166695</v>
+        <v>0.06393389901489499</v>
       </c>
       <c r="M17">
-        <v>0.5362029710034903</v>
+        <v>1.095673884822226</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>3.247155418250301</v>
+        <v>1.099597665654727</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2271180662950627</v>
+        <v>0.1815871466727685</v>
       </c>
       <c r="D18">
-        <v>0.1902508946749606</v>
+        <v>0.1615791516510399</v>
       </c>
       <c r="E18">
-        <v>0.1531133535688767</v>
+        <v>0.06807138012614899</v>
       </c>
       <c r="F18">
-        <v>1.361601086537306</v>
+        <v>0.5326850295017849</v>
       </c>
       <c r="G18">
-        <v>0.7610755354211278</v>
+        <v>0.2867744196088751</v>
       </c>
       <c r="H18">
-        <v>0.8614609437323466</v>
+        <v>0.2601187803156861</v>
       </c>
       <c r="I18">
-        <v>0.9422357482279011</v>
+        <v>0.3608442897919701</v>
       </c>
       <c r="J18">
-        <v>0.1721276168208661</v>
+        <v>0.05023420180279281</v>
       </c>
       <c r="K18">
-        <v>1.855072801443214</v>
+        <v>5.140921607183316</v>
       </c>
       <c r="L18">
-        <v>0.2015424993265924</v>
+        <v>0.0641077356863633</v>
       </c>
       <c r="M18">
-        <v>0.5279350253798611</v>
+        <v>1.068917710089607</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>3.255778844071642</v>
+        <v>1.101350659673685</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2268653915906498</v>
+        <v>0.1804255913529857</v>
       </c>
       <c r="D19">
-        <v>0.1899883759869994</v>
+        <v>0.1604963595913347</v>
       </c>
       <c r="E19">
-        <v>0.1531251024172988</v>
+        <v>0.06787869800149693</v>
       </c>
       <c r="F19">
-        <v>1.362477525449016</v>
+        <v>0.5320570914723177</v>
       </c>
       <c r="G19">
-        <v>0.7617928874202917</v>
+        <v>0.286606074019538</v>
       </c>
       <c r="H19">
-        <v>0.8621564305428109</v>
+        <v>0.260626666210193</v>
       </c>
       <c r="I19">
-        <v>0.9428879611237022</v>
+        <v>0.3605094748414501</v>
       </c>
       <c r="J19">
-        <v>0.1722473873966273</v>
+        <v>0.05035796229287648</v>
       </c>
       <c r="K19">
-        <v>1.840991279160846</v>
+        <v>5.097154293561914</v>
       </c>
       <c r="L19">
-        <v>0.2016477597875195</v>
+        <v>0.06416835011720678</v>
       </c>
       <c r="M19">
-        <v>0.5251354192225861</v>
+        <v>1.059862564553384</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>3.258733680488717</v>
+        <v>1.10202398890145</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.22800725882108</v>
+        <v>0.1856624431667342</v>
       </c>
       <c r="D20">
-        <v>0.1911729565664047</v>
+        <v>0.1653755679575681</v>
       </c>
       <c r="E20">
-        <v>0.1530757144405577</v>
+        <v>0.06875163607505286</v>
       </c>
       <c r="F20">
-        <v>1.358586876607674</v>
+        <v>0.5349995622131019</v>
       </c>
       <c r="G20">
-        <v>0.7586031889528044</v>
+        <v>0.2874597575298523</v>
       </c>
       <c r="H20">
-        <v>0.8590546502948442</v>
+        <v>0.2583957786009066</v>
       </c>
       <c r="I20">
-        <v>0.9399907424461986</v>
+        <v>0.3620996523056945</v>
       </c>
       <c r="J20">
-        <v>0.1717127065958923</v>
+        <v>0.04980813807218532</v>
       </c>
       <c r="K20">
-        <v>1.904335160540313</v>
+        <v>5.29416512738652</v>
       </c>
       <c r="L20">
-        <v>0.2011785418488437</v>
+        <v>0.06390256466513478</v>
       </c>
       <c r="M20">
-        <v>0.537733072017005</v>
+        <v>1.100627831582727</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>3.245576087549807</v>
+        <v>1.099311482290986</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2319274260460276</v>
+        <v>0.2034358022176406</v>
       </c>
       <c r="D21">
-        <v>0.1952088992105274</v>
+        <v>0.18188921979052</v>
       </c>
       <c r="E21">
-        <v>0.1529706121983416</v>
+        <v>0.07179006275495325</v>
       </c>
       <c r="F21">
-        <v>1.346449932342324</v>
+        <v>0.5470045461980462</v>
       </c>
       <c r="G21">
-        <v>0.7485601560904129</v>
+        <v>0.2920794500005073</v>
       </c>
       <c r="H21">
-        <v>0.8491228918868217</v>
+        <v>0.2518877076965325</v>
       </c>
       <c r="I21">
-        <v>0.9309183967765051</v>
+        <v>0.3689584519348514</v>
       </c>
       <c r="J21">
-        <v>0.1699914620167338</v>
+        <v>0.04808827279244987</v>
       </c>
       <c r="K21">
-        <v>2.116719301697913</v>
+        <v>5.95719556812611</v>
       </c>
       <c r="L21">
-        <v>0.1996801051035</v>
+        <v>0.06313461692251821</v>
       </c>
       <c r="M21">
-        <v>0.5800412085354765</v>
+        <v>1.23791326992577</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>3.203811311503586</v>
+        <v>1.095967173575985</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.234551340765293</v>
+        <v>0.2151947678021884</v>
       </c>
       <c r="D22">
-        <v>0.1978878251857168</v>
+        <v>0.1927790099448004</v>
       </c>
       <c r="E22">
-        <v>0.1529471164726139</v>
+        <v>0.07385842098845785</v>
       </c>
       <c r="F22">
-        <v>1.339214898800464</v>
+        <v>0.5565261427980062</v>
       </c>
       <c r="G22">
-        <v>0.7424996611943442</v>
+        <v>0.2964915010409399</v>
       </c>
       <c r="H22">
-        <v>0.842996978400663</v>
+        <v>0.2484091571344536</v>
       </c>
       <c r="I22">
-        <v>0.9254826660756379</v>
+        <v>0.3746404600000446</v>
       </c>
       <c r="J22">
-        <v>0.1689225323360635</v>
+        <v>0.04706303012856417</v>
       </c>
       <c r="K22">
-        <v>2.255178758382101</v>
+        <v>6.391564147329291</v>
       </c>
       <c r="L22">
-        <v>0.1987588791546138</v>
+        <v>0.06272943335579484</v>
       </c>
       <c r="M22">
-        <v>0.6076751155649731</v>
+        <v>1.32792361833539</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>3.178338387949154</v>
+        <v>1.098348425495658</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2331452792125361</v>
+        <v>0.2089050207034546</v>
       </c>
       <c r="D23">
-        <v>0.1964542918840095</v>
+        <v>0.1869575285820133</v>
       </c>
       <c r="E23">
-        <v>0.1529555306489705</v>
+        <v>0.07274668157665687</v>
       </c>
       <c r="F23">
-        <v>1.343012568431107</v>
+        <v>0.5512845608587114</v>
       </c>
       <c r="G23">
-        <v>0.7456881585115909</v>
+        <v>0.2940034611324052</v>
       </c>
       <c r="H23">
-        <v>0.8462330895549286</v>
+        <v>0.2501922430759507</v>
       </c>
       <c r="I23">
-        <v>0.9283386408100256</v>
+        <v>0.3714935127594643</v>
       </c>
       <c r="J23">
-        <v>0.1694879192391525</v>
+        <v>0.04760093145366717</v>
       </c>
       <c r="K23">
-        <v>2.181313007413337</v>
+        <v>6.159623657853899</v>
       </c>
       <c r="L23">
-        <v>0.1992452459397889</v>
+        <v>0.06293660560065106</v>
       </c>
       <c r="M23">
-        <v>0.5929281375728124</v>
+        <v>1.279853986087218</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>3.19176685378477</v>
+        <v>1.096641913943344</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2279442369955547</v>
+        <v>0.1853742147680322</v>
       </c>
       <c r="D24">
-        <v>0.1911076935128762</v>
+        <v>0.1651071916798088</v>
       </c>
       <c r="E24">
-        <v>0.1530781973578819</v>
+        <v>0.06870331145218245</v>
       </c>
       <c r="F24">
-        <v>1.358797015123265</v>
+        <v>0.5348302431965664</v>
       </c>
       <c r="G24">
-        <v>0.7587758190275125</v>
+        <v>0.2874065038076026</v>
       </c>
       <c r="H24">
-        <v>0.8592231426366439</v>
+        <v>0.2585146695159111</v>
       </c>
       <c r="I24">
-        <v>0.9401473543331491</v>
+        <v>0.3620067952482131</v>
       </c>
       <c r="J24">
-        <v>0.1717417856380052</v>
+        <v>0.04983786158601866</v>
       </c>
       <c r="K24">
-        <v>1.900858241536753</v>
+        <v>5.283342627206878</v>
       </c>
       <c r="L24">
-        <v>0.2012040150982344</v>
+        <v>0.06391669853422144</v>
       </c>
       <c r="M24">
-        <v>0.5370413293301368</v>
+        <v>1.098388112649261</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>3.246289454453589</v>
+        <v>1.099439393471826</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.2226027852000101</v>
+        <v>0.1605420237559798</v>
       </c>
       <c r="D25">
-        <v>0.1855204493391369</v>
+        <v>0.1419071671815146</v>
       </c>
       <c r="E25">
-        <v>0.1534054964318798</v>
+        <v>0.06467128901049968</v>
       </c>
       <c r="F25">
-        <v>1.378814863556244</v>
+        <v>0.5236641565755846</v>
       </c>
       <c r="G25">
-        <v>0.7750474181728535</v>
+        <v>0.2857167744064242</v>
       </c>
       <c r="H25">
-        <v>0.8748023290960205</v>
+        <v>0.2705720784926768</v>
       </c>
       <c r="I25">
-        <v>0.9550024981062322</v>
+        <v>0.3564832282786092</v>
       </c>
       <c r="J25">
-        <v>0.1744137285232554</v>
+        <v>0.0526509123240011</v>
       </c>
       <c r="K25">
-        <v>1.596960189264848</v>
+        <v>4.341213185402182</v>
       </c>
       <c r="L25">
-        <v>0.2035669060201393</v>
+        <v>0.06536687140361508</v>
       </c>
       <c r="M25">
-        <v>0.4767070216770932</v>
+        <v>0.9035738434545877</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>3.312913696378146</v>
+        <v>1.120374164782589</v>
       </c>
     </row>
   </sheetData>
